--- a/inst/Table_human_rated.xlsx
+++ b/inst/Table_human_rated.xlsx
@@ -11,9 +11,11 @@
     <sheet name="_" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$J$87</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$J$87</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">_!$A$1:$J$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="105">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -52,12 +54,6 @@
   <si>
     <t xml:space="preserve">Rating
 Conformity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hookreg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hookregNL</t>
   </si>
   <si>
     <t xml:space="preserve">F1.1</t>
@@ -355,9 +351,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -445,7 +440,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,10 +466,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,8 +508,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C59" colorId="64" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I88" activeCellId="0" sqref="I88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C82" colorId="64" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H88" activeCellId="0" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -530,11 +521,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="23.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,12 +550,8 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,32 +559,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,32 +585,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,32 +611,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,32 +637,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,32 +663,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,32 +689,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,32 +715,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,32 +741,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,32 +767,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,32 +793,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,32 +819,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,32 +845,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,32 +871,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,32 +897,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,32 +923,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,32 +949,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,32 +975,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,32 +1001,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,32 +1027,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,32 +1053,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,32 +1079,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,32 +1105,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,32 +1131,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,32 +1157,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,32 +1183,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,32 +1209,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,32 +1235,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,32 +1261,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,32 +1287,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,32 +1313,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1562,32 +1339,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,32 +1365,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,32 +1391,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,32 +1417,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,32 +1443,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,32 +1469,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1760,32 +1495,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,32 +1521,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,32 +1547,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,32 +1573,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1892,32 +1599,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,32 +1625,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,32 +1651,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,32 +1677,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,32 +1703,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,32 +1729,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,32 +1755,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F48" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H48" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,32 +1781,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F49" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2156,32 +1807,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F50" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2189,32 +1833,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,32 +1859,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F52" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,32 +1885,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,32 +1911,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F54" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,32 +1937,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F55" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,32 +1963,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F56" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,32 +1989,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F57" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,32 +2015,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F58" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H58" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,32 +2041,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F59" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2486,32 +2067,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F60" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2519,32 +2093,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F61" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2552,32 +2119,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F62" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,32 +2145,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F63" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I63" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,32 +2171,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F64" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I64" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2651,32 +2197,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I65" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2684,32 +2223,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F66" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,32 +2249,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F67" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I67" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,508 +2275,368 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="F68" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="7" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="F69" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I69" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>89</v>
+      <c r="B70" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>90</v>
+      <c r="B71" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I71" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>91</v>
+      <c r="B72" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="E72" s="0"/>
       <c r="F72" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>92</v>
+      <c r="B73" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="E73" s="0"/>
       <c r="F73" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>93</v>
+      <c r="B74" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>94</v>
+      <c r="B75" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>95</v>
+      <c r="B76" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E76" s="0"/>
       <c r="F76" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I76" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>96</v>
+      <c r="B77" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="E77" s="0"/>
       <c r="F77" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>97</v>
+      <c r="B78" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>98</v>
+      <c r="B79" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H79" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>99</v>
+      <c r="B80" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="E80" s="0"/>
       <c r="F80" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>100</v>
+      <c r="B81" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="E81" s="0"/>
       <c r="F81" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>101</v>
+      <c r="B82" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="10" t="s">
-        <v>102</v>
+      <c r="B83" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>103</v>
+      <c r="B84" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E84" s="0"/>
       <c r="F84" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>104</v>
+      <c r="B85" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="E85" s="0"/>
       <c r="F85" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I85" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>105</v>
+      <c r="B86" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H86" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I86" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11" t="n">
+      <c r="A87" s="10" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
       <c r="F87" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H87" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/inst/Table_human_rated.xlsx
+++ b/inst/Table_human_rated.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="110">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -296,10 +297,25 @@
     <t xml:space="preserve">F09~WGA</t>
   </si>
   <si>
+    <t xml:space="preserve">Evrogen lab experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whole genome amplification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EvaGreen</t>
+  </si>
+  <si>
     <t xml:space="preserve">F10~WGA</t>
   </si>
   <si>
     <t xml:space="preserve">F11~1ng/mkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRCA1 gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaqMan (HEX/BHQ1)</t>
   </si>
   <si>
     <t xml:space="preserve">F12~1ng/mkl</t>
@@ -508,8 +524,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C82" colorId="64" zoomScale="160" zoomScaleNormal="100" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H88" activeCellId="0" sqref="H88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2329,6 +2345,15 @@
       <c r="B70" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="C70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F70" s="6" t="s">
         <v>12</v>
       </c>
@@ -2344,7 +2369,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>12</v>
@@ -2361,9 +2395,17 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="0"/>
+        <v>92</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F72" s="6" t="s">
         <v>12</v>
       </c>
@@ -2379,9 +2421,17 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="0"/>
+        <v>95</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F73" s="6" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +2447,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>12</v>
@@ -2414,7 +2473,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>12</v>
@@ -2431,9 +2499,17 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E76" s="0"/>
+      <c r="E76" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F76" s="6" t="s">
         <v>17</v>
       </c>
@@ -2449,9 +2525,17 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="0"/>
       <c r="F77" s="6" t="s">
         <v>17</v>
       </c>
@@ -2467,7 +2551,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>17</v>
@@ -2484,7 +2577,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>17</v>
@@ -2501,9 +2603,17 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E80" s="0"/>
+        <v>102</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F80" s="6" t="s">
         <v>12</v>
       </c>
@@ -2519,9 +2629,17 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E81" s="0"/>
+        <v>103</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F81" s="6" t="s">
         <v>12</v>
       </c>
@@ -2537,7 +2655,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>12</v>
@@ -2554,7 +2681,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>12</v>
@@ -2571,9 +2707,17 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" s="0"/>
+        <v>106</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F84" s="6" t="s">
         <v>17</v>
       </c>
@@ -2589,9 +2733,17 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E85" s="0"/>
+        <v>107</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F85" s="6" t="s">
         <v>17</v>
       </c>
@@ -2607,7 +2759,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>17</v>
@@ -2624,11 +2785,17 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
+        <v>109</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F87" s="6" t="s">
         <v>17</v>
       </c>

--- a/inst/Table_human_rated.xlsx
+++ b/inst/Table_human_rated.xlsx
@@ -11,12 +11,15 @@
     <sheet name="_" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$87</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$95</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$95</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="118">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -69,9 +72,6 @@
     <t xml:space="preserve">Syto-13</t>
   </si>
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
     <t xml:space="preserve">F1.2</t>
   </si>
   <si>
@@ -84,9 +84,6 @@
     <t xml:space="preserve">F3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
     <t xml:space="preserve">F3.2</t>
   </si>
   <si>
@@ -361,6 +358,36 @@
   </si>
   <si>
     <t xml:space="preserve">H02~100ng/mkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRAS gene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaqMan (FAM/BHQ1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s8</t>
   </si>
 </sst>
 </file>
@@ -456,7 +483,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,10 +528,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -522,10 +545,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ87"/>
+  <dimension ref="A1:AMJ95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D76" activeCellId="0" sqref="D76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A66" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H94" activeCellId="0" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,14 +609,14 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
+      <c r="F2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -612,14 +635,14 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>12</v>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -638,14 +661,14 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
+      <c r="F4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +676,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -664,14 +687,14 @@
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>12</v>
+      <c r="F5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -690,14 +713,14 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
+      <c r="F6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -716,14 +739,14 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>12</v>
+      <c r="F7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -731,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -742,14 +765,14 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>12</v>
+      <c r="F8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -768,14 +791,14 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>12</v>
+      <c r="F9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -794,14 +817,14 @@
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>12</v>
+      <c r="F10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
@@ -820,14 +843,14 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>12</v>
+      <c r="F11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -846,14 +869,14 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>12</v>
+      <c r="F12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -872,14 +895,14 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>12</v>
+      <c r="F13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,25 +910,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,25 +936,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,25 +962,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,25 +988,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,25 +1014,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,25 +1040,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,25 +1066,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,25 +1092,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,25 +1118,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,25 +1144,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,25 +1170,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,25 +1196,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,25 +1222,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,25 +1248,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,25 +1274,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,25 +1300,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,25 +1326,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,25 +1352,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,25 +1378,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,25 +1404,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,25 +1430,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,25 +1456,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,25 +1482,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,25 +1508,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,25 +1534,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,25 +1560,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,25 +1586,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,25 +1612,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,25 +1638,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,25 +1664,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,25 +1690,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,25 +1716,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,25 +1742,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>12</v>
+      <c r="F46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,25 +1768,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>12</v>
+      <c r="F47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,25 +1794,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>12</v>
+      <c r="F48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,25 +1820,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>12</v>
+      <c r="F49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,25 +1846,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>12</v>
+      <c r="F50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,25 +1872,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>12</v>
+      <c r="F51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,25 +1898,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>12</v>
+      <c r="F52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,25 +1924,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>12</v>
+      <c r="F53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,25 +1950,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>12</v>
+      <c r="F54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,25 +1976,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>12</v>
+      <c r="F55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1979,25 +2002,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>12</v>
+      <c r="F56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,25 +2028,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>12</v>
+      <c r="F57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,25 +2054,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>12</v>
+      <c r="F58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,25 +2080,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>12</v>
+      <c r="F59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,25 +2106,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>12</v>
+      <c r="F60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,25 +2132,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>12</v>
+      <c r="F61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,25 +2158,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>12</v>
+      <c r="F62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2161,25 +2184,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>12</v>
+      <c r="F63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,25 +2210,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>12</v>
+      <c r="F64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2213,25 +2236,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>12</v>
+      <c r="F65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2239,25 +2262,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>12</v>
+      <c r="F66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,25 +2288,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>12</v>
+      <c r="F67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,25 +2314,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>12</v>
+      <c r="F68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,25 +2340,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>12</v>
+      <c r="F69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,25 +2366,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>12</v>
+      <c r="F70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,25 +2392,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>12</v>
+      <c r="F71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,25 +2418,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>12</v>
+      <c r="F72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,25 +2444,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,25 +2470,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,25 +2496,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F75" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,25 +2522,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,25 +2548,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F77" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,25 +2574,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2577,25 +2600,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F79" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,25 +2626,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,25 +2652,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F81" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,25 +2678,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,25 +2704,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F83" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,25 +2730,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,25 +2756,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="F85" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,57 +2782,265 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C88" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="B89" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="10" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="10" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10" t="n">
         <v>93</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="B94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="10" t="n">
         <v>94</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="n">
+      <c r="B95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="D95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>12</v>
+      <c r="E95" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="58" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="53" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inst/Table_human_rated.xlsx
+++ b/inst/Table_human_rated.xlsx
@@ -11,15 +11,16 @@
     <sheet name="_" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$97</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">_!$A$1:$H$95</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="119">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -388,6 +389,9 @@
   </si>
   <si>
     <t xml:space="preserve">s8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTC</t>
   </si>
 </sst>
 </file>
@@ -545,10 +549,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ95"/>
+  <dimension ref="A1:AMJ97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A66" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H94" activeCellId="0" sqref="H94"/>
+      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3037,10 +3041,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="10" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="53" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="52" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/inst/Table_human_rated.xlsx
+++ b/inst/Table_human_rated.xlsx
@@ -12,15 +12,16 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$97</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$95</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">_!$A$1:$H$97</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">_!$A$1:$H$95</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">_!$A$1:$H$95</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">_!$A$1:$H$87</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -552,7 +553,7 @@
   <dimension ref="A1:AMJ97"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A66" colorId="64" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B98" activeCellId="0" sqref="B98"/>
+      <selection pane="topLeft" activeCell="I93" activeCellId="0" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
